--- a/Progetto Aerodinamico Gestione.xlsx
+++ b/Progetto Aerodinamico Gestione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10730332_polimi_it/Documents/Università/Progetto Aerodinamico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Documenti\GitHub\progettoAerodinamico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{FEF08662-D3E9-424F-A742-3319010D4284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD9E57E-C11C-5D4C-AE7B-C081C0C8BC67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5457D-0C77-48CE-9F44-A9850CAA89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{4C7CE075-C1D8-5A41-A05E-4A1762B69073}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4C7CE075-C1D8-5A41-A05E-4A1762B69073}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2. XOP" sheetId="3" r:id="rId3"/>
     <sheet name="3. SU2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Progetto Aerodinamico</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>20% dalla punta del naso</t>
+  </si>
+  <si>
+    <t>Aggiornamento</t>
+  </si>
+  <si>
+    <t>Dopo aver litigato con XOP ho deciso di virare verso XFLR5. Il programma non permette ovviamente di analizzare il campo di moto, ma riesce a fare un'analisi carina delle ali in 3D (caricata, se si vuole vedere). Non so ancora se riuscirò a tirare fuori qualcosa di sensato ma sto provando a creare uno script di post processing.</t>
+  </si>
+  <si>
+    <t>Passi futuri</t>
+  </si>
+  <si>
+    <t>Script di post processing per capire se si riescono a calcolare i carichi su un piano che dovrebbe rappresentare la ruota (per ora il piano mi è più facile, poi capiamo se si può fare meglio)</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +192,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -484,61 +505,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,49 +625,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,258 +970,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8317D0B2-C1E6-354F-8AFC-53F116FE98B4}">
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="81" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="2" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="2:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="8" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="2:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="8" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="2:11" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="2:11" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="26"/>
-      <c r="C10" s="10">
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="8">
         <v>70</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13">
+      <c r="D10" s="4"/>
+      <c r="E10" s="11">
         <f>C10*0.277778*1.225*0.3/(1.81*10^-5)</f>
         <v>394797.73756906076</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="26"/>
-      <c r="C12" s="24">
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="13">
         <f>C10*0.277778</f>
         <v>19.444460000000003</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="28">
+      <c r="D12" s="4"/>
+      <c r="E12" s="11">
         <v>400000</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26"/>
-      <c r="C13" s="20" t="s">
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="26"/>
-      <c r="C14" s="22" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="26"/>
-      <c r="C15" s="20" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26"/>
-      <c r="C16" s="22" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="26"/>
-      <c r="C17" s="20" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="26"/>
-      <c r="C18" s="22" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="26"/>
-      <c r="C19" s="20" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="26"/>
-      <c r="C20" s="22" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="26"/>
-      <c r="C21" s="20" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
-    </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="26"/>
-      <c r="C22" s="22" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="26"/>
-      <c r="C23" s="20" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="26"/>
-      <c r="C24" s="22" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="26"/>
-      <c r="C25" s="20" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="23"/>
+      <c r="C26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="B9:B26"/>
@@ -1195,9 +1240,6 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1209,7 +1251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1217,12 +1259,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F1D1E0-6205-B145-9BE0-92EB60575B7D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1"/>
+    <col min="3" max="3" width="40.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.19921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="249.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="35">
+        <v>45771</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1233,7 +1307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Progetto Aerodinamico Gestione.xlsx
+++ b/Progetto Aerodinamico Gestione.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\OneDrive\Documenti\GitHub\progettoAerodinamico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviadanesi/Documents/GitHub/progettoAerodinamico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5457D-0C77-48CE-9F44-A9850CAA89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7292BE70-B0B2-3141-AC1B-FEF4A30894C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4C7CE075-C1D8-5A41-A05E-4A1762B69073}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{4C7CE075-C1D8-5A41-A05E-4A1762B69073}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Progetto Aerodinamico</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il mio litigio con ogni tipo di software continua. Sto provando a stimare il campo di moto su python, per poi calcolare i carichi </t>
+  </si>
+  <si>
+    <t>Preghiere</t>
   </si>
 </sst>
 </file>
@@ -568,40 +574,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,13 +604,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,49 +980,49 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
-    <col min="2" max="2" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="2" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.796875" style="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="2:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B4" s="23"/>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1035,8 +1041,8 @@
       <c r="J4" s="6"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
+    <row r="5" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1049,8 +1055,8 @@
       <c r="J5" s="6"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
+    <row r="6" spans="2:11" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1063,9 +1069,9 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="8" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1076,8 +1082,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="32"/>
       <c r="C10" s="8">
         <v>70</v>
       </c>
@@ -1087,8 +1093,8 @@
         <v>394797.73756906076</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1097,8 +1103,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32"/>
       <c r="C12" s="13">
         <f>C10*0.277778</f>
         <v>19.444460000000003</v>
@@ -1108,120 +1114,122 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="15" t="s">
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="24" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="32"/>
+      <c r="C14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="15" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="32"/>
+      <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="24" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="32"/>
+      <c r="C16" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="15" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="32"/>
+      <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="24" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="32"/>
+      <c r="C18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="15" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="32"/>
+      <c r="C19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="32"/>
+      <c r="C20" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
-      <c r="C21" s="15" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="32"/>
+      <c r="C21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="32"/>
+      <c r="C22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="15" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="32"/>
+      <c r="C23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="32"/>
+      <c r="C24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-    </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="15" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="32"/>
+      <c r="C25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23"/>
-      <c r="C26" s="18" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+      <c r="C26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="B3:B6"/>
@@ -1238,8 +1246,6 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1251,7 +1257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1259,41 +1265,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F1D1E0-6205-B145-9BE0-92EB60575B7D}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1"/>
-    <col min="3" max="3" width="40.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.19921875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1"/>
+    <col min="3" max="3" width="40.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="249.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="35">
+    <row r="3" spans="2:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="B3" s="16">
         <v>45771</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="17" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" s="16">
+        <v>45776</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
